--- a/3 cource/2 sem/Basics of software project management/Lab_5/Диаграмма Ганта.xlsx
+++ b/3 cource/2 sem/Basics of software project management/Lab_5/Диаграмма Ганта.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vscho\Documents\Institute\3 cource\2 sem\Basics of software project management\Lab_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79AB598-48D2-4BA2-8E36-52FAF8EF9204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD41C02-EEFF-4158-A6C7-277B6161AE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Начало</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>Вероятность завершения</t>
   </si>
 </sst>
 </file>
@@ -1952,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1973,7 +1976,7 @@
     <col min="14" max="14" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -2833,8 +2836,11 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M22" t="s">
+        <v>33</v>
+      </c>
       <c r="N22">
-        <f>NORMDIST(C18,I19,N19,TRUE)</f>
+        <f>_xlfn.NORM.S.DIST(N21,(C18-I19&gt;0))</f>
         <v>0.67234973027280664</v>
       </c>
     </row>
